--- a/implement_thai_deliverable/data.xlsx
+++ b/implement_thai_deliverable/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Huu Truong Le\Desktop\CODING\SEW-data-analysis\implement_thai_deliverable\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Truong Le\CODING\SEW-data-analysis\implement_thai_deliverable\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE4D8A84-7D81-4B21-92C8-58DBFD1B39BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7329FC82-D7D6-472B-A137-6C44985F6042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="21555" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -463,19 +463,19 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.5703125" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" customWidth="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="25.109375" customWidth="1"/>
+    <col min="5" max="5" width="20.5546875" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
+    <col min="7" max="7" width="17.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -498,7 +498,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -521,7 +521,7 @@
         <v>423.81</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -544,7 +544,7 @@
         <v>228.33</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -567,7 +567,7 @@
         <v>88.91</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -590,7 +590,7 @@
         <v>37.46</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -613,7 +613,7 @@
         <v>20.7</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -636,7 +636,7 @@
         <v>10.71</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -659,7 +659,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -682,7 +682,7 @@
         <v>21.08</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -705,7 +705,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -728,7 +728,7 @@
         <v>12.24</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2">
         <v>10</v>
       </c>
